--- a/public/excelTemplates/Nhap_Nguyen_Lieu.xlsx
+++ b/public/excelTemplates/Nhap_Nguyen_Lieu.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DQ_Admin_Panel_Project\DQ_Admin_Panel\public\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9957B0C-5468-41D3-A4AC-E905CADA9312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678F042C-7EAC-4B77-9C90-CFB152E511D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56748950-8610-46D1-8F15-23048271DE89}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng nhập" sheetId="1" r:id="rId1"/>
+    <sheet name="Mẫu nhập và lưu ý" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -57,13 +58,40 @@
   </si>
   <si>
     <t>Số lượng mủ đông</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Lưu ý chung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ nhập các dữ liệu bên trong bảng! </t>
+  </si>
+  <si>
+    <t>Bắt buộc các trường</t>
+  </si>
+  <si>
+    <t>Format: dd/mm/yyyy. Khi nhập ngày 0-/0-/yyyy, có thể nó sẽ lược bỏ số 0. Không có vấn đề, giữ nguyên!</t>
+  </si>
+  <si>
+    <t>Mã nhà vườn. Không phải tên nhà vườn!</t>
+  </si>
+  <si>
+    <t>Không được số âm</t>
+  </si>
+  <si>
+    <t>0 &gt; x &lt; 100. Đơn vị thập phân (Ví dụ: 32,43)</t>
+  </si>
+  <si>
+    <t>Ghi đánh giá hoặc lưu ý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +130,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8A7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,51 +183,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -180,13 +285,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -219,6 +329,35 @@
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,18 +378,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7715BEAD-1156-441B-A896-88C7DED95FEF}" name="Table1" displayName="Table1" ref="A1:G888" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G888" xr:uid="{7715BEAD-1156-441B-A896-88C7DED95FEF}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D7003B8E-95CA-47D4-933C-B223781A0E9A}" name="Nhà vườn" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{B9291821-7954-42BF-A753-57DBB4A1FA25}" name="Số lượng mủ nước" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6E7CEC30-0237-4979-90DF-7A6FAFD78283}" name="Hàm lượng mủ nước" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{BA877386-27FB-4718-9431-BC373CB040DE}" name="Số lượng mủ tạp" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A851F511-4F25-4AC6-9D2B-4EE93F72CDED}" name="Số lượng mủ ké" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9366F2F1-8A52-4963-8B69-E48112BB6BBA}" name="Số lượng mủ đông" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9A34603D-02DF-4602-BA64-4DE697599154}" name="Ghi chú" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7715BEAD-1156-441B-A896-88C7DED95FEF}" name="Table1" displayName="Table1" ref="A1:H888" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:H888" xr:uid="{7715BEAD-1156-441B-A896-88C7DED95FEF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D7003B8E-95CA-47D4-933C-B223781A0E9A}" name="Ngày" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B9291821-7954-42BF-A753-57DBB4A1FA25}" name="Nhà vườn" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{6E7CEC30-0237-4979-90DF-7A6FAFD78283}" name="Số lượng mủ nước" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{BA877386-27FB-4718-9431-BC373CB040DE}" name="Hàm lượng mủ nước" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{A851F511-4F25-4AC6-9D2B-4EE93F72CDED}" name="Số lượng mủ tạp" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{9366F2F1-8A52-4963-8B69-E48112BB6BBA}" name="Số lượng mủ ké" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{9A34603D-02DF-4602-BA64-4DE697599154}" name="Số lượng mủ đông" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{0FC91177-FF6F-4268-B6E9-616A65F153A4}" name="Ghi chú" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5214321D-E33B-4590-837A-9162EEBDC793}" name="Table13" displayName="Table13" ref="A1:H888" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H888" xr:uid="{5214321D-E33B-4590-837A-9162EEBDC793}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2C2455BB-8AEC-415A-A25E-0785BBD41329}" name="Ngày" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9149F796-29A5-430B-B795-B3A4AB39B99A}" name="Nhà vườn" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F3D80708-CA48-463B-B236-60F0F01A4A62}" name="Số lượng mủ nước" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{868C8DED-BB02-41B1-B614-0B40D849F38D}" name="Hàm lượng mủ nước" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{DDF1A012-AB78-44BE-9B54-F1EAC178C154}" name="Số lượng mủ tạp" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{56A01F5D-47E9-4451-9589-259DE635703A}" name="Số lượng mủ ké" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{52E046C1-B858-4C19-839A-7CCF109B3B60}" name="Số lượng mủ đông" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4E6A9E95-902D-42CA-8CEB-681997C3232B}" name="Ghi chú" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -571,22 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394D73DA-684C-4734-8338-472EAC8A4234}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="93.140625" style="1" bestFit="1" customWidth="1"/>
@@ -594,116 +751,443 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="4"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+jwjKXngG51qoEmRKS1PKm54fjoDcqw9GejTXU4e62HO5duAVvYEiN0t6cIBcpw/h2nzm5fQeHBwH98FY/hssg==" saltValue="5Lg9sMZ4/YRvEMXxQl+h5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J18:K18"/>
-  </mergeCells>
+  <sheetProtection algorithmName="SHA-512" hashValue="iHf2nlPzmsGD8BmtWHZew0g8awngyE8ktO/I+a0c3EpiSacmPIENb8Yswgu0cc1sXm/x+pbqQxrl0pLnojiIxw==" saltValue="YDPRGajrdCNN9+7EONfJhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBF6788-1677-42ED-814D-807771EC6CB0}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="93.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="5">
+        <v>123123</v>
+      </c>
+      <c r="C2" s="5">
+        <v>97</v>
+      </c>
+      <c r="D2" s="5">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B3" s="5">
+        <v>123123</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3434</v>
+      </c>
+      <c r="D3" s="5">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45660</v>
+      </c>
+      <c r="B4" s="5">
+        <v>123123</v>
+      </c>
+      <c r="C4" s="5">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="J5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="/w4/1nU6fVoZeky8vqBnVVdvl3L38h6AC9W5IDHC9uyXttAuHIzdyrbJb1I1ufASZ+bli9m8aZJ+f2vRgwzj3w==" saltValue="zQgw+Cyt05SvhMOPhnvZJg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J18:K18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>